--- a/src/templateMachines.xlsx
+++ b/src/templateMachines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9828625-53B6-B94F-A7B8-7ED9A5604F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5FE87-79F3-B047-A5C9-A30F43F71A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40760" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>UnattendedSlots</t>
   </si>
   <si>
-    <t>RobotVersions_</t>
+    <t>RobotVersions</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>

--- a/src/templateMachines.xlsx
+++ b/src/templateMachines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5FE87-79F3-B047-A5C9-A30F43F71A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8775710-68BC-C147-999E-B39973F375F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40760" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>
